--- a/Modelos em Python/30 dias a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros teste.xlsx
+++ b/Modelos em Python/30 dias a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros teste.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.03930219102422</v>
+        <v>11.85998982082323</v>
       </c>
       <c r="C11" t="n">
-        <v>40.15781793857445</v>
+        <v>39.51611711456234</v>
       </c>
       <c r="D11" t="n">
-        <v>55.77554133988814</v>
+        <v>55.13626619384721</v>
       </c>
     </row>
     <row r="12">
